--- a/Grade 2019/HomeAssignment/HA_Summary_ZW_2019.xlsx
+++ b/Grade 2019/HomeAssignment/HA_Summary_ZW_2019.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="415">
   <si>
     <t>Student Details</t>
   </si>
@@ -1277,13 +1277,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,29 +1315,60 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,20 +1383,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1373,73 +1390,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1455,18 +1406,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1478,15 +1437,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,31 +1504,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,13 +1552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,25 +1570,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,25 +1606,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,79 +1654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,6 +1721,75 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1790,237 +1814,168 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2077,10 +2032,7 @@
     <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2545,13 +2497,13 @@
       <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="18">
@@ -2578,13 +2530,13 @@
       <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="18">
@@ -2611,13 +2563,13 @@
       <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="18">
@@ -2644,13 +2596,13 @@
       <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="18">
@@ -2677,13 +2629,13 @@
       <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="18">
@@ -2710,13 +2662,13 @@
       <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="18">
@@ -2743,13 +2695,13 @@
       <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="18">
@@ -2776,13 +2728,13 @@
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="18">
@@ -2809,13 +2761,13 @@
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="18">
@@ -2842,13 +2794,13 @@
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="18">
@@ -2875,13 +2827,13 @@
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="18">
@@ -2908,13 +2860,13 @@
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="18">
@@ -2941,13 +2893,13 @@
       <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="18">
@@ -2974,13 +2926,13 @@
       <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="18">
@@ -3007,13 +2959,13 @@
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="18">
@@ -3040,13 +2992,13 @@
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="18">
@@ -3073,13 +3025,13 @@
       <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="18">
@@ -3106,13 +3058,13 @@
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>74</v>
       </c>
       <c r="F21" s="18">
@@ -3139,13 +3091,13 @@
       <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="18">
@@ -3172,13 +3124,13 @@
       <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="18">
@@ -3205,13 +3157,13 @@
       <c r="B24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>83</v>
       </c>
       <c r="F24" s="18">
@@ -3238,13 +3190,13 @@
       <c r="B25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="18">
@@ -3271,13 +3223,13 @@
       <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>89</v>
       </c>
       <c r="F26" s="18">
@@ -3304,13 +3256,13 @@
       <c r="B27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>92</v>
       </c>
       <c r="F27" s="18">
@@ -3337,13 +3289,13 @@
       <c r="B28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>95</v>
       </c>
       <c r="F28" s="18">
@@ -3370,13 +3322,13 @@
       <c r="B29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>98</v>
       </c>
       <c r="F29" s="18">
@@ -3403,13 +3355,13 @@
       <c r="B30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F30" s="18">
@@ -3436,13 +3388,13 @@
       <c r="B31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>104</v>
       </c>
       <c r="F31" s="18">
@@ -3469,13 +3421,13 @@
       <c r="B32" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="20" t="s">
         <v>107</v>
       </c>
       <c r="F32" s="18">
@@ -3502,13 +3454,13 @@
       <c r="B33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>110</v>
       </c>
       <c r="F33" s="18">
@@ -3535,13 +3487,13 @@
       <c r="B34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="20" t="s">
         <v>113</v>
       </c>
       <c r="F34" s="18">
@@ -3568,13 +3520,13 @@
       <c r="B35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>116</v>
       </c>
       <c r="F35" s="18">
@@ -3601,13 +3553,13 @@
       <c r="B36" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>119</v>
       </c>
       <c r="F36" s="18">
@@ -3634,13 +3586,13 @@
       <c r="B37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="18">
@@ -3667,13 +3619,13 @@
       <c r="B38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>125</v>
       </c>
       <c r="F38" s="18">
@@ -3700,13 +3652,13 @@
       <c r="B39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>128</v>
       </c>
       <c r="F39" s="18">
@@ -3733,13 +3685,13 @@
       <c r="B40" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F40" s="18">
@@ -3766,13 +3718,13 @@
       <c r="B41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="20" t="s">
         <v>134</v>
       </c>
       <c r="F41" s="18">
@@ -3799,13 +3751,13 @@
       <c r="B42" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>137</v>
       </c>
       <c r="F42" s="18">
@@ -3832,13 +3784,13 @@
       <c r="B43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="20">
         <v>12019245918</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="20" t="s">
         <v>139</v>
       </c>
       <c r="F43" s="18">
@@ -3865,13 +3817,13 @@
       <c r="B44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="20">
         <v>12016246281</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="20" t="s">
         <v>141</v>
       </c>
       <c r="F44" s="18">
@@ -3924,8 +3876,8 @@
   <sheetPr/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4023,11 +3975,11 @@
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>19</v>
+      <c r="F3" s="12">
+        <v>44101</v>
+      </c>
+      <c r="G3" s="12">
+        <v>44105</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>19</v>
@@ -4071,10 +4023,12 @@
       <c r="E4" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="20">
-        <v>80</v>
-      </c>
-      <c r="G4" s="18"/>
+      <c r="F4" s="18">
+        <v>80</v>
+      </c>
+      <c r="G4" s="18">
+        <v>70</v>
+      </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -4085,7 +4039,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="19">
         <f t="shared" ref="P4:P40" si="0">AVERAGE(F4:O4)</f>
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4104,10 +4058,12 @@
       <c r="E5" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="20">
-        <v>80</v>
-      </c>
-      <c r="G5" s="18"/>
+      <c r="F5" s="18">
+        <v>80</v>
+      </c>
+      <c r="G5" s="18">
+        <v>70</v>
+      </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -4118,7 +4074,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="19">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4137,10 +4093,12 @@
       <c r="E6" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="20">
-        <v>70</v>
-      </c>
-      <c r="G6" s="18"/>
+      <c r="F6" s="18">
+        <v>70</v>
+      </c>
+      <c r="G6" s="18">
+        <v>80</v>
+      </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -4151,7 +4109,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4170,10 +4128,12 @@
       <c r="E7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="20">
-        <v>70</v>
-      </c>
-      <c r="G7" s="18"/>
+      <c r="F7" s="18">
+        <v>70</v>
+      </c>
+      <c r="G7" s="18">
+        <v>70</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -4203,10 +4163,12 @@
       <c r="E8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>60</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18">
+        <v>70</v>
+      </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -4217,7 +4179,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4236,10 +4198,12 @@
       <c r="E9" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="20">
-        <v>80</v>
-      </c>
-      <c r="G9" s="18"/>
+      <c r="F9" s="18">
+        <v>80</v>
+      </c>
+      <c r="G9" s="18">
+        <v>70</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -4250,7 +4214,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="19">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4269,10 +4233,12 @@
       <c r="E10" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="20">
-        <v>70</v>
-      </c>
-      <c r="G10" s="18"/>
+      <c r="F10" s="18">
+        <v>70</v>
+      </c>
+      <c r="G10" s="18">
+        <v>80</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -4283,7 +4249,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4302,10 +4268,12 @@
       <c r="E11" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="20">
-        <v>70</v>
-      </c>
-      <c r="G11" s="18"/>
+      <c r="F11" s="18">
+        <v>70</v>
+      </c>
+      <c r="G11" s="18">
+        <v>70</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -4335,10 +4303,12 @@
       <c r="E12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="20">
-        <v>70</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="18">
+        <v>70</v>
+      </c>
+      <c r="G12" s="18">
+        <v>80</v>
+      </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -4349,7 +4319,7 @@
       <c r="O12" s="18"/>
       <c r="P12" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4368,10 +4338,12 @@
       <c r="E13" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="20">
-        <v>70</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="18">
+        <v>70</v>
+      </c>
+      <c r="G13" s="18">
+        <v>80</v>
+      </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -4382,7 +4354,7 @@
       <c r="O13" s="18"/>
       <c r="P13" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4401,10 +4373,12 @@
       <c r="E14" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="20">
-        <v>70</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="18">
+        <v>70</v>
+      </c>
+      <c r="G14" s="18">
+        <v>70</v>
+      </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -4434,10 +4408,12 @@
       <c r="E15" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="20">
-        <v>70</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="18">
+        <v>70</v>
+      </c>
+      <c r="G15" s="18">
+        <v>50</v>
+      </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -4448,7 +4424,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4467,10 +4443,12 @@
       <c r="E16" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="20">
-        <v>70</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="18">
+        <v>70</v>
+      </c>
+      <c r="G16" s="18">
+        <v>70</v>
+      </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -4500,10 +4478,12 @@
       <c r="E17" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>60</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="18">
+        <v>90</v>
+      </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -4514,7 +4494,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -4533,10 +4513,12 @@
       <c r="E18" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="20">
-        <v>70</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="18">
+        <v>70</v>
+      </c>
+      <c r="G18" s="18">
+        <v>70</v>
+      </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -4566,10 +4548,12 @@
       <c r="E19" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="18">
         <v>60</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>50</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -4580,7 +4564,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4599,10 +4583,12 @@
       <c r="E20" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="18">
         <v>60</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="18">
+        <v>90</v>
+      </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -4613,7 +4599,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4632,10 +4618,12 @@
       <c r="E21" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="20">
-        <v>70</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="F21" s="18">
+        <v>70</v>
+      </c>
+      <c r="G21" s="18">
+        <v>60</v>
+      </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -4646,7 +4634,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4665,10 +4653,12 @@
       <c r="E22" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="20">
-        <v>80</v>
-      </c>
-      <c r="G22" s="18"/>
+      <c r="F22" s="18">
+        <v>80</v>
+      </c>
+      <c r="G22" s="18">
+        <v>70</v>
+      </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -4679,7 +4669,7 @@
       <c r="O22" s="18"/>
       <c r="P22" s="19">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -4698,10 +4688,12 @@
       <c r="E23" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="20">
-        <v>70</v>
-      </c>
-      <c r="G23" s="18"/>
+      <c r="F23" s="18">
+        <v>70</v>
+      </c>
+      <c r="G23" s="18">
+        <v>90</v>
+      </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -4712,7 +4704,7 @@
       <c r="O23" s="18"/>
       <c r="P23" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -4731,10 +4723,12 @@
       <c r="E24" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="18">
         <v>50</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="18">
+        <v>70</v>
+      </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -4745,7 +4739,7 @@
       <c r="O24" s="18"/>
       <c r="P24" s="19">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -4764,10 +4758,12 @@
       <c r="E25" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="18">
         <v>60</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>70</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -4778,7 +4774,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4797,10 +4793,12 @@
       <c r="E26" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="18">
         <v>60</v>
       </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="18">
+        <v>70</v>
+      </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -4811,7 +4809,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -4830,10 +4828,12 @@
       <c r="E27" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="18">
         <v>60</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="18">
+        <v>50</v>
+      </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -4844,7 +4844,7 @@
       <c r="O27" s="18"/>
       <c r="P27" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -4863,10 +4863,12 @@
       <c r="E28" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="20">
-        <v>70</v>
-      </c>
-      <c r="G28" s="18"/>
+      <c r="F28" s="18">
+        <v>70</v>
+      </c>
+      <c r="G28" s="18">
+        <v>70</v>
+      </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -4896,10 +4898,12 @@
       <c r="E29" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="20">
-        <v>70</v>
-      </c>
-      <c r="G29" s="18"/>
+      <c r="F29" s="18">
+        <v>70</v>
+      </c>
+      <c r="G29" s="18">
+        <v>70</v>
+      </c>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -4929,10 +4933,12 @@
       <c r="E30" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F30" s="20">
-        <v>70</v>
-      </c>
-      <c r="G30" s="18"/>
+      <c r="F30" s="18">
+        <v>70</v>
+      </c>
+      <c r="G30" s="18">
+        <v>60</v>
+      </c>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -4943,7 +4949,7 @@
       <c r="O30" s="18"/>
       <c r="P30" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -4962,10 +4968,12 @@
       <c r="E31" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>60</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="18">
+        <v>90</v>
+      </c>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -4976,7 +4984,7 @@
       <c r="O31" s="18"/>
       <c r="P31" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -4995,10 +5003,12 @@
       <c r="E32" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>60</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="18">
+        <v>70</v>
+      </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -5009,7 +5019,7 @@
       <c r="O32" s="18"/>
       <c r="P32" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -5028,10 +5038,12 @@
       <c r="E33" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="20">
-        <v>70</v>
-      </c>
-      <c r="G33" s="18"/>
+      <c r="F33" s="18">
+        <v>70</v>
+      </c>
+      <c r="G33" s="18">
+        <v>50</v>
+      </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -5042,7 +5054,7 @@
       <c r="O33" s="18"/>
       <c r="P33" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -5061,10 +5073,12 @@
       <c r="E34" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="20">
-        <v>70</v>
-      </c>
-      <c r="G34" s="18"/>
+      <c r="F34" s="18">
+        <v>70</v>
+      </c>
+      <c r="G34" s="18">
+        <v>70</v>
+      </c>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -5094,10 +5108,12 @@
       <c r="E35" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="20">
-        <v>70</v>
-      </c>
-      <c r="G35" s="18"/>
+      <c r="F35" s="18">
+        <v>70</v>
+      </c>
+      <c r="G35" s="18">
+        <v>50</v>
+      </c>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -5108,7 +5124,7 @@
       <c r="O35" s="18"/>
       <c r="P35" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -5127,10 +5143,12 @@
       <c r="E36" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F36" s="20">
-        <v>70</v>
-      </c>
-      <c r="G36" s="18"/>
+      <c r="F36" s="18">
+        <v>70</v>
+      </c>
+      <c r="G36" s="18">
+        <v>60</v>
+      </c>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -5141,7 +5159,7 @@
       <c r="O36" s="18"/>
       <c r="P36" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -5160,10 +5178,12 @@
       <c r="E37" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="20">
-        <v>70</v>
-      </c>
-      <c r="G37" s="18"/>
+      <c r="F37" s="18">
+        <v>70</v>
+      </c>
+      <c r="G37" s="18">
+        <v>90</v>
+      </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -5174,7 +5194,7 @@
       <c r="O37" s="18"/>
       <c r="P37" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -5193,10 +5213,12 @@
       <c r="E38" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F38" s="20">
-        <v>70</v>
-      </c>
-      <c r="G38" s="18"/>
+      <c r="F38" s="18">
+        <v>70</v>
+      </c>
+      <c r="G38" s="18">
+        <v>50</v>
+      </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -5207,7 +5229,7 @@
       <c r="O38" s="18"/>
       <c r="P38" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -5226,10 +5248,12 @@
       <c r="E39" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F39" s="20">
-        <v>70</v>
-      </c>
-      <c r="G39" s="18"/>
+      <c r="F39" s="18">
+        <v>70</v>
+      </c>
+      <c r="G39" s="18">
+        <v>70</v>
+      </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -5259,10 +5283,12 @@
       <c r="E40" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="18">
         <v>50</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="18">
+        <v>70</v>
+      </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -5273,7 +5299,7 @@
       <c r="O40" s="18"/>
       <c r="P40" s="19">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -5292,10 +5318,12 @@
       <c r="E41" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="18">
         <v>60</v>
       </c>
-      <c r="G41" s="18"/>
+      <c r="G41" s="18">
+        <v>90</v>
+      </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -5306,7 +5334,7 @@
       <c r="O41" s="18"/>
       <c r="P41" s="19">
         <f t="shared" ref="P41:P42" si="1">AVERAGE(F41:O41)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -5325,10 +5353,12 @@
       <c r="E42" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="18">
         <v>60</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="18">
+        <v>80</v>
+      </c>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
@@ -5339,7 +5369,7 @@
       <c r="O42" s="18"/>
       <c r="P42" s="19">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
